--- a/src/CCBBA/outputs/validation_plots/grid_debug.xlsx
+++ b/src/CCBBA/outputs/validation_plots/grid_debug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\GitHub\ABSP-EOSS\src\CCBBA\outputs\validation_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E3ABD-8667-4306-BF5E-32A7580B3FEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3171EFE2-DD64-44FD-90D1-5CE366F907F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{582E2B47-1C21-4FCD-B1A5-4B80EBC66176}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{582E2B47-1C21-4FCD-B1A5-4B80EBC66176}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,25 +314,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.7799999999999998E-2</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3299999999999999E-2</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3299999999999999E-2</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1389</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7799999999999998E-2</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -369,25 +366,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.16209999999999999</c:v>
+                  <c:v>0.37759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16059999999999999</c:v>
+                  <c:v>0.39329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1797</c:v>
+                  <c:v>0.39560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21149999999999999</c:v>
+                  <c:v>0.39800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15640000000000001</c:v>
+                  <c:v>0.39800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.39900000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,25 +418,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13769999999999999</c:v>
+                  <c:v>0.54969999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1363</c:v>
+                  <c:v>0.58520000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17230000000000001</c:v>
+                  <c:v>0.58520000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16339999999999999</c:v>
+                  <c:v>0.52710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15770000000000001</c:v>
+                  <c:v>0.52710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.52710000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,15 +1208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1553,7 +1544,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,27 +1586,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="18">
-        <v>2.7799999999999998E-2</v>
+        <v>0.375</v>
       </c>
       <c r="C2" s="18">
-        <v>0.16209999999999999</v>
+        <v>0.37759999999999999</v>
       </c>
       <c r="D2" s="18">
-        <v>0.13769999999999999</v>
+        <v>0.54969999999999997</v>
       </c>
       <c r="E2" s="21">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F2" s="21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" s="16">
         <f>E2/($E2+$F2)</f>
-        <v>0.95652173913043481</v>
+        <v>0.7</v>
       </c>
       <c r="H2" s="17">
         <f>F2/($E2+$F2)</f>
-        <v>4.3478260869565216E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1623,27 +1614,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="19">
-        <v>8.3299999999999999E-2</v>
+        <v>0.4375</v>
       </c>
       <c r="C3" s="19">
-        <v>0.16059999999999999</v>
+        <v>0.39329999999999998</v>
       </c>
       <c r="D3" s="19">
-        <v>0.1363</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="E3" s="22">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G8" si="0">E3/($E3+$F3)</f>
-        <v>0.86956521739130432</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H3" s="9">
         <f t="shared" ref="H3:H8" si="1">F3/($E3+$F3)</f>
-        <v>0.13043478260869565</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1651,27 +1642,27 @@
         <v>4</v>
       </c>
       <c r="B4" s="19">
-        <v>8.3299999999999999E-2</v>
+        <v>0.4375</v>
       </c>
       <c r="C4" s="19">
-        <v>0.1797</v>
+        <v>0.39560000000000001</v>
       </c>
       <c r="D4" s="19">
-        <v>0.17230000000000001</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="E4" s="22">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" s="22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>0.86956521739130432</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="1"/>
-        <v>0.13043478260869565</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1679,27 +1670,27 @@
         <v>6</v>
       </c>
       <c r="B5" s="19">
-        <v>0.1389</v>
+        <v>0.4375</v>
       </c>
       <c r="C5" s="19">
-        <v>0.21149999999999999</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D5" s="19">
-        <v>0.16339999999999999</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="E5" s="22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>0.76190476190476186</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="1"/>
-        <v>0.23809523809523808</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1707,27 +1698,27 @@
         <v>8</v>
       </c>
       <c r="B6" s="19">
-        <v>2.7799999999999998E-2</v>
+        <v>0.4375</v>
       </c>
       <c r="C6" s="19">
-        <v>0.15640000000000001</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D6" s="19">
-        <v>0.15770000000000001</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="E6" s="22">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F6" s="22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1735,56 +1726,40 @@
         <v>1</v>
       </c>
       <c r="B7" s="19">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="C7" s="19">
-        <v>0</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D7" s="19">
-        <v>0</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="E7" s="22">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="e">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="9" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
